--- a/Digital Literacy Skills Assessment v4.xlsx
+++ b/Digital Literacy Skills Assessment v4.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janice\Documents\wpl assessments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janice\Documents\wpl assessments\wpl-digital-skills-assessments-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AC61B3-4C13-4681-B80B-DFB5A7A53571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F390021-F2E0-4E8D-9BAC-D05B017231A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Digital Literacy Skills Assessm" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Digital Literacy Skills Assessm'!$A$1:$AF$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="220">
   <si>
     <t>Response number</t>
   </si>
@@ -744,12 +747,21 @@
   <si>
     <t>We need SCI  to provide us  power In the school and internt access in the school.</t>
   </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -883,6 +895,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1226,11 +1244,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1586,24 +1605,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="100.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="66.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="222.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="16" max="16" width="66.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="222.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1623,61 +1647,73 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AB1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="165" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="165">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1696,62 +1732,74 @@
       <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
         <v>30</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L2" t="s">
+      <c r="P2" t="s">
         <v>33</v>
       </c>
-      <c r="M2" t="s">
+      <c r="Q2" t="s">
         <v>34</v>
       </c>
-      <c r="N2" t="s">
+      <c r="R2" t="s">
         <v>35</v>
       </c>
-      <c r="O2" t="s">
+      <c r="S2" t="s">
         <v>36</v>
       </c>
-      <c r="P2" t="s">
+      <c r="T2" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="U2" t="s">
         <v>37</v>
       </c>
-      <c r="R2" t="s">
+      <c r="V2" t="s">
         <v>38</v>
       </c>
-      <c r="S2" t="s">
+      <c r="W2" t="s">
         <v>39</v>
       </c>
-      <c r="T2" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" t="s">
         <v>41</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Z2" t="s">
         <v>35</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AA2" t="s">
         <v>42</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AB2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="195" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="195">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1770,56 +1818,68 @@
       <c r="F3" t="s">
         <v>46</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K3" t="s">
         <v>47</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>47</v>
       </c>
-      <c r="I3" t="s">
+      <c r="M3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" t="s">
+      <c r="N3" t="s">
         <v>31</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>48</v>
       </c>
-      <c r="L3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="P3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="N3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="R3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="1" t="s">
+      <c r="T3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" s="1" t="s">
+      <c r="V3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="U3" t="s">
+      <c r="Y3" t="s">
         <v>53</v>
       </c>
-      <c r="W3" t="s">
+      <c r="AA3" t="s">
         <v>54</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AB3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="405" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="405">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1838,62 +1898,74 @@
       <c r="F4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K4" t="s">
         <v>47</v>
       </c>
-      <c r="H4" t="s">
+      <c r="L4" t="s">
         <v>29</v>
       </c>
-      <c r="I4" t="s">
+      <c r="M4" t="s">
         <v>30</v>
       </c>
-      <c r="J4" t="s">
+      <c r="N4" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L4" t="s">
+      <c r="P4" t="s">
         <v>33</v>
       </c>
-      <c r="M4" t="s">
+      <c r="Q4" t="s">
         <v>59</v>
       </c>
-      <c r="N4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="R4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" t="s">
         <v>60</v>
       </c>
-      <c r="P4" t="s">
+      <c r="T4" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="U4" t="s">
         <v>61</v>
       </c>
-      <c r="R4" t="s">
+      <c r="V4" t="s">
         <v>35</v>
       </c>
-      <c r="S4" t="s">
+      <c r="W4" t="s">
         <v>62</v>
       </c>
-      <c r="T4" t="s">
-        <v>40</v>
-      </c>
-      <c r="U4" t="s">
+      <c r="X4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" t="s">
         <v>63</v>
       </c>
-      <c r="V4" t="s">
-        <v>40</v>
-      </c>
-      <c r="W4" t="s">
+      <c r="Z4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA4" t="s">
         <v>64</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AB4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="285" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="285">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1912,62 +1984,74 @@
       <c r="F5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K5" t="s">
         <v>29</v>
       </c>
-      <c r="H5" t="s">
+      <c r="L5" t="s">
         <v>29</v>
       </c>
-      <c r="I5" t="s">
+      <c r="M5" t="s">
         <v>31</v>
       </c>
-      <c r="J5" t="s">
+      <c r="N5" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="P5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N5" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" s="1" t="s">
+      <c r="R5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="P5" t="s">
+      <c r="T5" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="R5" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" s="1" t="s">
+      <c r="V5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="T5" t="s">
-        <v>40</v>
-      </c>
-      <c r="U5" s="1" t="s">
+      <c r="X5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="V5" t="s">
+      <c r="Z5" t="s">
         <v>35</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="X5" t="s">
+      <c r="AB5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1986,62 +2070,74 @@
       <c r="F6" t="s">
         <v>76</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K6" t="s">
         <v>29</v>
       </c>
-      <c r="H6" t="s">
+      <c r="L6" t="s">
         <v>47</v>
       </c>
-      <c r="I6" t="s">
+      <c r="M6" t="s">
         <v>77</v>
       </c>
-      <c r="J6" t="s">
+      <c r="N6" t="s">
         <v>31</v>
       </c>
-      <c r="K6" t="s">
+      <c r="O6" t="s">
         <v>78</v>
       </c>
-      <c r="L6" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="P6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" t="s">
         <v>79</v>
       </c>
-      <c r="N6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="R6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" t="s">
         <v>80</v>
       </c>
-      <c r="P6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="T6" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" t="s">
         <v>81</v>
-      </c>
-      <c r="R6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S6" t="s">
-        <v>82</v>
-      </c>
-      <c r="T6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U6" t="s">
-        <v>83</v>
       </c>
       <c r="V6" t="s">
         <v>38</v>
       </c>
       <c r="W6" t="s">
+        <v>82</v>
+      </c>
+      <c r="X6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA6" t="s">
         <v>84</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AB6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="255" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="255">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2060,56 +2156,68 @@
       <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K7" t="s">
         <v>29</v>
       </c>
-      <c r="H7" t="s">
+      <c r="L7" t="s">
         <v>47</v>
       </c>
-      <c r="I7" t="s">
+      <c r="M7" t="s">
         <v>31</v>
       </c>
-      <c r="J7" t="s">
+      <c r="N7" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="P7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" t="s">
         <v>88</v>
       </c>
-      <c r="N7" t="s">
-        <v>40</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="R7" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" t="s">
         <v>89</v>
       </c>
-      <c r="P7" t="s">
+      <c r="T7" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="U7" t="s">
         <v>90</v>
       </c>
-      <c r="R7" t="s">
-        <v>40</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="V7" t="s">
+        <v>40</v>
+      </c>
+      <c r="W7" t="s">
         <v>91</v>
       </c>
-      <c r="T7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V7" t="s">
+      <c r="X7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z7" t="s">
         <v>38</v>
       </c>
-      <c r="W7" t="s">
+      <c r="AA7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2128,62 +2236,74 @@
       <c r="F8" t="s">
         <v>76</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K8" t="s">
         <v>29</v>
       </c>
-      <c r="H8" t="s">
+      <c r="L8" t="s">
         <v>47</v>
       </c>
-      <c r="I8" t="s">
+      <c r="M8" t="s">
         <v>77</v>
       </c>
-      <c r="J8" t="s">
+      <c r="N8" t="s">
         <v>31</v>
       </c>
-      <c r="K8" t="s">
+      <c r="O8" t="s">
         <v>78</v>
       </c>
-      <c r="L8" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="P8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" t="s">
         <v>94</v>
       </c>
-      <c r="N8" t="s">
+      <c r="R8" t="s">
         <v>35</v>
       </c>
-      <c r="O8" t="s">
+      <c r="S8" t="s">
         <v>95</v>
       </c>
-      <c r="P8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="T8" t="s">
+        <v>40</v>
+      </c>
+      <c r="U8" t="s">
         <v>96</v>
       </c>
-      <c r="R8" t="s">
-        <v>40</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="V8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W8" t="s">
         <v>97</v>
       </c>
-      <c r="T8" t="s">
+      <c r="X8" t="s">
         <v>38</v>
       </c>
-      <c r="U8" t="s">
+      <c r="Y8" t="s">
         <v>98</v>
       </c>
-      <c r="V8" t="s">
+      <c r="Z8" t="s">
         <v>38</v>
       </c>
-      <c r="W8" t="s">
+      <c r="AA8" t="s">
         <v>99</v>
       </c>
-      <c r="X8" t="s">
+      <c r="AB8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2202,59 +2322,71 @@
       <c r="F9" t="s">
         <v>28</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K9" t="s">
         <v>102</v>
       </c>
-      <c r="H9" t="s">
+      <c r="L9" t="s">
         <v>102</v>
       </c>
-      <c r="I9" t="s">
+      <c r="M9" t="s">
         <v>31</v>
       </c>
-      <c r="J9" t="s">
+      <c r="N9" t="s">
         <v>31</v>
       </c>
-      <c r="K9" t="s">
+      <c r="O9" t="s">
         <v>48</v>
       </c>
-      <c r="L9" t="s">
+      <c r="P9" t="s">
         <v>33</v>
       </c>
-      <c r="M9" t="s">
+      <c r="Q9" t="s">
         <v>103</v>
-      </c>
-      <c r="N9" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9" t="s">
-        <v>104</v>
-      </c>
-      <c r="P9" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>105</v>
       </c>
       <c r="R9" t="s">
         <v>35</v>
       </c>
       <c r="S9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="U9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="V9" t="s">
         <v>35</v>
       </c>
       <c r="W9" t="s">
+        <v>106</v>
+      </c>
+      <c r="X9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="409.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2273,59 +2405,71 @@
       <c r="F10" t="s">
         <v>28</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K10" t="s">
         <v>47</v>
       </c>
-      <c r="H10" t="s">
+      <c r="L10" t="s">
         <v>29</v>
       </c>
-      <c r="I10" t="s">
+      <c r="M10" t="s">
         <v>31</v>
       </c>
-      <c r="J10" t="s">
+      <c r="N10" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="P10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" t="s">
         <v>110</v>
       </c>
-      <c r="N10" t="s">
+      <c r="R10" t="s">
         <v>35</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="P10" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="R10" t="s">
-        <v>38</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="T10" t="s">
         <v>38</v>
       </c>
-      <c r="U10" t="s">
+      <c r="U10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="V10" t="s">
+        <v>38</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="X10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y10" t="s">
         <v>114</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="AA10" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="X10" s="1" t="s">
+      <c r="AB10" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="300" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="300">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2344,62 +2488,74 @@
       <c r="F11" t="s">
         <v>28</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K11" t="s">
         <v>47</v>
       </c>
-      <c r="H11" t="s">
+      <c r="L11" t="s">
         <v>47</v>
       </c>
-      <c r="I11" t="s">
+      <c r="M11" t="s">
         <v>31</v>
       </c>
-      <c r="J11" t="s">
+      <c r="N11" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L11" t="s">
+      <c r="P11" t="s">
         <v>38</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="N11" t="s">
+      <c r="R11" t="s">
         <v>35</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="P11" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q11" s="1" t="s">
+      <c r="T11" t="s">
+        <v>40</v>
+      </c>
+      <c r="U11" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="R11" t="s">
+      <c r="V11" t="s">
         <v>120</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="W11" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="T11" t="s">
-        <v>40</v>
-      </c>
-      <c r="U11" s="1" t="s">
+      <c r="X11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y11" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="V11" t="s">
+      <c r="Z11" t="s">
         <v>35</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="AA11" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="X11" t="s">
+      <c r="AB11" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="405" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="405">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2418,62 +2574,74 @@
       <c r="F12" t="s">
         <v>28</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K12" t="s">
         <v>47</v>
       </c>
-      <c r="H12" t="s">
+      <c r="L12" t="s">
         <v>29</v>
       </c>
-      <c r="I12" t="s">
+      <c r="M12" t="s">
         <v>30</v>
       </c>
-      <c r="J12" t="s">
+      <c r="N12" t="s">
         <v>126</v>
       </c>
-      <c r="K12" t="s">
+      <c r="O12" t="s">
         <v>127</v>
       </c>
-      <c r="L12" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="P12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q12" t="s">
         <v>128</v>
       </c>
-      <c r="N12" t="s">
-        <v>40</v>
-      </c>
-      <c r="O12" s="1" t="s">
+      <c r="R12" t="s">
+        <v>40</v>
+      </c>
+      <c r="S12" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="P12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q12" s="1" t="s">
+      <c r="T12" t="s">
+        <v>40</v>
+      </c>
+      <c r="U12" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="R12" t="s">
-        <v>40</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="V12" t="s">
+        <v>40</v>
+      </c>
+      <c r="W12" t="s">
         <v>131</v>
       </c>
-      <c r="T12" t="s">
-        <v>40</v>
-      </c>
-      <c r="U12" t="s">
+      <c r="X12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y12" t="s">
         <v>132</v>
       </c>
-      <c r="V12" t="s">
-        <v>40</v>
-      </c>
-      <c r="W12" t="s">
+      <c r="Z12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA12" t="s">
         <v>133</v>
       </c>
-      <c r="X12" t="s">
+      <c r="AB12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2492,62 +2660,74 @@
       <c r="F13" t="s">
         <v>28</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K13" t="s">
         <v>29</v>
       </c>
-      <c r="H13" t="s">
+      <c r="L13" t="s">
         <v>47</v>
       </c>
-      <c r="I13" t="s">
+      <c r="M13" t="s">
         <v>31</v>
       </c>
-      <c r="J13" t="s">
+      <c r="N13" t="s">
         <v>30</v>
       </c>
-      <c r="K13" t="s">
+      <c r="O13" t="s">
         <v>127</v>
       </c>
-      <c r="L13" t="s">
+      <c r="P13" t="s">
         <v>33</v>
       </c>
-      <c r="M13" t="s">
+      <c r="Q13" t="s">
         <v>136</v>
-      </c>
-      <c r="N13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O13" t="s">
-        <v>137</v>
-      </c>
-      <c r="P13" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>138</v>
       </c>
       <c r="R13" t="s">
         <v>35</v>
       </c>
       <c r="S13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T13" t="s">
         <v>35</v>
       </c>
       <c r="U13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="V13" t="s">
         <v>35</v>
       </c>
       <c r="W13" t="s">
+        <v>139</v>
+      </c>
+      <c r="X13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA13" t="s">
         <v>141</v>
       </c>
-      <c r="X13" t="s">
+      <c r="AB13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="165" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="165">
       <c r="A14">
         <v>14</v>
       </c>
@@ -2566,62 +2746,74 @@
       <c r="F14" t="s">
         <v>28</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K14" t="s">
         <v>47</v>
       </c>
-      <c r="H14" t="s">
+      <c r="L14" t="s">
         <v>47</v>
       </c>
-      <c r="I14" t="s">
+      <c r="M14" t="s">
         <v>31</v>
       </c>
-      <c r="J14" t="s">
+      <c r="N14" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="O14" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="L14" t="s">
-        <v>38</v>
-      </c>
-      <c r="M14" t="s">
-        <v>144</v>
-      </c>
-      <c r="N14" t="s">
-        <v>40</v>
-      </c>
-      <c r="O14" t="s">
-        <v>145</v>
       </c>
       <c r="P14" t="s">
         <v>38</v>
       </c>
       <c r="Q14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="T14" t="s">
         <v>38</v>
       </c>
       <c r="U14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="V14" t="s">
         <v>38</v>
       </c>
       <c r="W14" t="s">
+        <v>147</v>
+      </c>
+      <c r="X14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA14" t="s">
         <v>149</v>
       </c>
-      <c r="X14" t="s">
+      <c r="AB14" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="30">
       <c r="A15">
         <v>15</v>
       </c>
@@ -2640,53 +2832,65 @@
       <c r="F15" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K15" t="s">
         <v>29</v>
       </c>
-      <c r="H15" t="s">
+      <c r="L15" t="s">
         <v>29</v>
       </c>
-      <c r="I15" t="s">
+      <c r="M15" t="s">
         <v>31</v>
       </c>
-      <c r="J15" t="s">
+      <c r="N15" t="s">
         <v>30</v>
       </c>
-      <c r="K15" t="s">
+      <c r="O15" t="s">
         <v>152</v>
       </c>
-      <c r="L15" t="s">
+      <c r="P15" t="s">
         <v>33</v>
       </c>
-      <c r="M15" t="s">
+      <c r="Q15" t="s">
         <v>153</v>
       </c>
-      <c r="N15" t="s">
+      <c r="R15" t="s">
         <v>35</v>
       </c>
-      <c r="O15" t="s">
+      <c r="S15" t="s">
         <v>154</v>
       </c>
-      <c r="P15" t="s">
+      <c r="T15" t="s">
         <v>35</v>
       </c>
-      <c r="S15" t="s">
+      <c r="W15" t="s">
         <v>155</v>
       </c>
-      <c r="U15" t="s">
+      <c r="Y15" t="s">
         <v>156</v>
       </c>
-      <c r="V15" t="s">
+      <c r="Z15" t="s">
         <v>35</v>
       </c>
-      <c r="W15" t="s">
+      <c r="AA15" t="s">
         <v>157</v>
       </c>
-      <c r="X15" t="s">
+      <c r="AB15" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="255" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="255">
       <c r="A16">
         <v>16</v>
       </c>
@@ -2705,62 +2909,74 @@
       <c r="F16" t="s">
         <v>28</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K16" t="s">
         <v>29</v>
       </c>
-      <c r="H16" t="s">
+      <c r="L16" t="s">
         <v>29</v>
       </c>
-      <c r="I16" t="s">
+      <c r="M16" t="s">
         <v>30</v>
       </c>
-      <c r="J16" t="s">
+      <c r="N16" t="s">
         <v>126</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L16" t="s">
-        <v>40</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="P16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q16" t="s">
         <v>160</v>
       </c>
-      <c r="N16" t="s">
-        <v>40</v>
-      </c>
-      <c r="O16" s="1" t="s">
+      <c r="R16" t="s">
+        <v>40</v>
+      </c>
+      <c r="S16" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="P16" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>162</v>
-      </c>
-      <c r="R16" t="s">
-        <v>40</v>
-      </c>
-      <c r="S16" t="s">
-        <v>163</v>
       </c>
       <c r="T16" t="s">
         <v>35</v>
       </c>
       <c r="U16" t="s">
+        <v>162</v>
+      </c>
+      <c r="V16" t="s">
+        <v>40</v>
+      </c>
+      <c r="W16" t="s">
+        <v>163</v>
+      </c>
+      <c r="X16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y16" t="s">
         <v>164</v>
       </c>
-      <c r="V16" t="s">
+      <c r="Z16" t="s">
         <v>35</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="AA16" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="X16" t="s">
+      <c r="AB16" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28">
       <c r="A17">
         <v>17</v>
       </c>
@@ -2779,62 +2995,74 @@
       <c r="F17" t="s">
         <v>28</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K17" t="s">
         <v>47</v>
       </c>
-      <c r="H17" t="s">
+      <c r="L17" t="s">
         <v>47</v>
       </c>
-      <c r="I17" t="s">
+      <c r="M17" t="s">
         <v>30</v>
       </c>
-      <c r="J17" t="s">
+      <c r="N17" t="s">
         <v>31</v>
       </c>
-      <c r="K17" t="s">
+      <c r="O17" t="s">
         <v>127</v>
       </c>
-      <c r="L17" t="s">
-        <v>40</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="P17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q17" t="s">
         <v>167</v>
       </c>
-      <c r="N17" t="s">
-        <v>40</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="R17" t="s">
+        <v>40</v>
+      </c>
+      <c r="S17" t="s">
         <v>168</v>
       </c>
-      <c r="P17" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q17" t="s">
+      <c r="T17" t="s">
+        <v>40</v>
+      </c>
+      <c r="U17" t="s">
         <v>169</v>
       </c>
-      <c r="R17" t="s">
-        <v>40</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="V17" t="s">
+        <v>40</v>
+      </c>
+      <c r="W17" t="s">
         <v>170</v>
       </c>
-      <c r="T17" t="s">
-        <v>40</v>
-      </c>
-      <c r="U17" t="s">
+      <c r="X17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y17" t="s">
         <v>171</v>
       </c>
-      <c r="V17" t="s">
-        <v>40</v>
-      </c>
-      <c r="W17" t="s">
+      <c r="Z17" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA17" t="s">
         <v>172</v>
       </c>
-      <c r="X17" t="s">
+      <c r="AB17" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28">
       <c r="A18">
         <v>18</v>
       </c>
@@ -2853,62 +3081,74 @@
       <c r="F18" t="s">
         <v>28</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K18" t="s">
         <v>47</v>
       </c>
-      <c r="H18" t="s">
+      <c r="L18" t="s">
         <v>29</v>
       </c>
-      <c r="I18" t="s">
+      <c r="M18" t="s">
         <v>30</v>
       </c>
-      <c r="J18" t="s">
+      <c r="N18" t="s">
         <v>31</v>
       </c>
-      <c r="K18" t="s">
+      <c r="O18" t="s">
         <v>174</v>
       </c>
-      <c r="L18" t="s">
+      <c r="P18" t="s">
         <v>33</v>
       </c>
-      <c r="M18" t="s">
+      <c r="Q18" t="s">
         <v>175</v>
-      </c>
-      <c r="N18" t="s">
-        <v>35</v>
-      </c>
-      <c r="O18" t="s">
-        <v>176</v>
-      </c>
-      <c r="P18" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>177</v>
       </c>
       <c r="R18" t="s">
         <v>35</v>
       </c>
       <c r="S18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="T18" t="s">
         <v>35</v>
       </c>
       <c r="U18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="V18" t="s">
         <v>35</v>
       </c>
       <c r="W18" t="s">
+        <v>178</v>
+      </c>
+      <c r="X18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA18" t="s">
         <v>180</v>
       </c>
-      <c r="X18" t="s">
+      <c r="AB18" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="330" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="330">
       <c r="A19">
         <v>19</v>
       </c>
@@ -2927,62 +3167,74 @@
       <c r="F19" t="s">
         <v>28</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K19" t="s">
         <v>47</v>
       </c>
-      <c r="H19" t="s">
+      <c r="L19" t="s">
         <v>47</v>
       </c>
-      <c r="I19" t="s">
+      <c r="M19" t="s">
         <v>30</v>
       </c>
-      <c r="J19" t="s">
+      <c r="N19" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="L19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="P19" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q19" t="s">
         <v>184</v>
-      </c>
-      <c r="N19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="P19" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>186</v>
       </c>
       <c r="R19" t="s">
         <v>35</v>
       </c>
-      <c r="S19" t="s">
-        <v>187</v>
+      <c r="S19" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="T19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="V19" t="s">
         <v>35</v>
       </c>
       <c r="W19" t="s">
+        <v>187</v>
+      </c>
+      <c r="X19" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA19" t="s">
         <v>189</v>
       </c>
-      <c r="X19" t="s">
+      <c r="AB19" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="195" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="195">
       <c r="A20">
         <v>21</v>
       </c>
@@ -3001,62 +3253,74 @@
       <c r="F20" t="s">
         <v>28</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K20" t="s">
         <v>47</v>
       </c>
-      <c r="H20" t="s">
+      <c r="L20" t="s">
         <v>47</v>
       </c>
-      <c r="I20" t="s">
+      <c r="M20" t="s">
         <v>30</v>
       </c>
-      <c r="J20" t="s">
+      <c r="N20" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="O20" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="L20" t="s">
-        <v>40</v>
-      </c>
-      <c r="M20" t="s">
+      <c r="P20" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q20" t="s">
         <v>191</v>
       </c>
-      <c r="N20" t="s">
-        <v>40</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="R20" t="s">
+        <v>40</v>
+      </c>
+      <c r="S20" t="s">
         <v>192</v>
       </c>
-      <c r="P20" t="s">
+      <c r="T20" t="s">
         <v>38</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="U20" t="s">
         <v>193</v>
       </c>
-      <c r="R20" t="s">
+      <c r="V20" t="s">
         <v>120</v>
       </c>
-      <c r="S20" t="s">
+      <c r="W20" t="s">
         <v>194</v>
       </c>
-      <c r="T20" t="s">
+      <c r="X20" t="s">
         <v>120</v>
       </c>
-      <c r="U20" t="s">
+      <c r="Y20" t="s">
         <v>195</v>
       </c>
-      <c r="V20" t="s">
+      <c r="Z20" t="s">
         <v>35</v>
       </c>
-      <c r="W20" t="s">
+      <c r="AA20" t="s">
         <v>196</v>
       </c>
-      <c r="X20" t="s">
+      <c r="AB20" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="255" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="255">
       <c r="A21">
         <v>22</v>
       </c>
@@ -3075,62 +3339,74 @@
       <c r="F21" t="s">
         <v>28</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K21" t="s">
         <v>29</v>
       </c>
-      <c r="H21" t="s">
+      <c r="L21" t="s">
         <v>29</v>
       </c>
-      <c r="I21" t="s">
+      <c r="M21" t="s">
         <v>30</v>
       </c>
-      <c r="J21" t="s">
+      <c r="N21" t="s">
         <v>77</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="L21" t="s">
+      <c r="P21" t="s">
         <v>38</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="Q21" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="N21" t="s">
+      <c r="R21" t="s">
         <v>38</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="S21" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="P21" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q21" s="1" t="s">
+      <c r="T21" t="s">
+        <v>40</v>
+      </c>
+      <c r="U21" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="R21" t="s">
+      <c r="V21" t="s">
         <v>120</v>
       </c>
-      <c r="S21" s="1" t="s">
+      <c r="W21" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="T21" t="s">
+      <c r="X21" t="s">
         <v>120</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="Y21" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="V21" t="s">
+      <c r="Z21" t="s">
         <v>38</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="AA21" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="X21" t="s">
+      <c r="AB21" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="180" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="165">
       <c r="A22">
         <v>23</v>
       </c>
@@ -3149,58 +3425,70 @@
       <c r="F22" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="K22" t="s">
         <v>29</v>
       </c>
-      <c r="H22" t="s">
+      <c r="L22" t="s">
         <v>29</v>
       </c>
-      <c r="I22" t="s">
+      <c r="M22" t="s">
         <v>126</v>
       </c>
-      <c r="J22" t="s">
+      <c r="N22" t="s">
         <v>30</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="O22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L22" t="s">
+      <c r="P22" t="s">
         <v>33</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="Q22" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="N22" t="s">
-        <v>40</v>
-      </c>
-      <c r="O22" s="1" t="s">
+      <c r="R22" t="s">
+        <v>40</v>
+      </c>
+      <c r="S22" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="P22" t="s">
+      <c r="T22" t="s">
         <v>38</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="U22" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="R22" t="s">
-        <v>212</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="T22" t="s">
-        <v>212</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="V22" t="s">
         <v>212</v>
       </c>
       <c r="W22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="X22" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA22" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="X22" t="s">
+      <c r="AB22" t="s">
         <v>216</v>
       </c>
     </row>
